--- a/输出文档/ZR60提示音.xlsx
+++ b/输出文档/ZR60提示音.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>提示音</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>“欢迎回家”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>卡号验证未通过</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -141,15 +137,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>“取消”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>按下“确认”按键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“确认”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -256,10 +244,6 @@
   </si>
   <si>
     <t>“正在进行软件升级”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>“祝您,一路顺风”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -465,6 +449,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,9 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -791,7 +775,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -828,7 +812,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -848,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -876,247 +860,247 @@
         <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="1" t="s">
+      <c r="D14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
+      <c r="D19" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>57</v>
+      <c r="A21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="20" t="s">
-        <v>61</v>
+      <c r="A24" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>63</v>
+      <c r="C24" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
-        <v>65</v>
+      <c r="A25" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>63</v>
+      <c r="C25" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
